--- a/public/assets/formatImportResponden/Template_Import_Responden.xlsx
+++ b/public/assets/formatImportResponden/Template_Import_Responden.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arhamrahim/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/arhamrahim/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{959D4C7C-F74B-FC45-BBC8-3A1A155129EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618B7B97-C2AD-F84E-8FC3-6F77AD1B24A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8740" yWindow="13340" windowWidth="26840" windowHeight="15940" xr2:uid="{A13F65D4-1CAD-A34C-A017-6BA1F0C2E908}"/>
+    <workbookView xWindow="18940" yWindow="7660" windowWidth="26840" windowHeight="15940" xr2:uid="{A13F65D4-1CAD-A34C-A017-6BA1F0C2E908}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>Kartu Keluarga</t>
-  </si>
-  <si>
     <t>Alamat</t>
   </si>
   <si>
@@ -58,42 +55,59 @@
     <t>Provinsi</t>
   </si>
   <si>
-    <t>Jl. Raya</t>
-  </si>
-  <si>
-    <t>Nama Kepala Keluarga</t>
-  </si>
-  <si>
-    <t>Bambank</t>
-  </si>
-  <si>
-    <t>7206090709970002</t>
-  </si>
-  <si>
-    <t>7206090709970001</t>
-  </si>
-  <si>
-    <t>Budi</t>
-  </si>
-  <si>
-    <t>Jl. Lorong</t>
+    <t>66770907099705432</t>
+  </si>
+  <si>
+    <t>Angela</t>
+  </si>
+  <si>
+    <t>Jl. Ketiga</t>
+  </si>
+  <si>
+    <t>73</t>
+  </si>
+  <si>
+    <t>7313</t>
+  </si>
+  <si>
+    <t>7313120</t>
+  </si>
+  <si>
+    <t>7313120006</t>
+  </si>
+  <si>
+    <t>Nana</t>
+  </si>
+  <si>
+    <t>Jl. Pertama</t>
+  </si>
+  <si>
+    <t>7373</t>
+  </si>
+  <si>
+    <t>7373020</t>
+  </si>
+  <si>
+    <t>7373020003</t>
+  </si>
+  <si>
+    <t>Kartu_Keluarga</t>
+  </si>
+  <si>
+    <t>Nama_Kepala_Keluarga</t>
+  </si>
+  <si>
+    <t>72060907099700099</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -105,6 +119,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -115,8 +149,8 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF0070C0"/>
-        <bgColor indexed="64"/>
+        <fgColor rgb="FFFF7562"/>
+        <bgColor rgb="FFFF7562"/>
       </patternFill>
     </fill>
   </fills>
@@ -132,21 +166,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -464,98 +499,98 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.1640625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.6640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="33.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="23.1640625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="19.83203125" style="4" customWidth="1"/>
-    <col min="6" max="6" width="20.6640625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="19.5" style="4" customWidth="1"/>
-    <col min="8" max="8" width="17.1640625" style="4" customWidth="1"/>
-    <col min="9" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="5.1640625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="27.6640625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="23.1640625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="19.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="19.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="17.1640625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A2" s="7">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="5" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="7">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="5" t="s">
+      <c r="B3" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="4">
-        <v>7373020003</v>
-      </c>
-      <c r="F2" s="4">
-        <v>7373020</v>
-      </c>
-      <c r="G2" s="4">
-        <v>7373</v>
-      </c>
-      <c r="H2" s="4">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="4">
-        <v>7313120006</v>
-      </c>
-      <c r="F3" s="4">
-        <v>7313120</v>
-      </c>
-      <c r="G3" s="4">
-        <v>7313</v>
-      </c>
-      <c r="H3" s="4">
-        <v>73</v>
+      <c r="F3" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
